--- a/WebBeadandóHtmlCssBootstrap_9b.xlsx
+++ b/WebBeadandóHtmlCssBootstrap_9b.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Digisuli\_2023-2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Józsi\Iskola\IKTP\Új beadandó\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90ABB298-A1AF-47E0-9C83-0395A3F85BCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15600" windowHeight="11760"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fedőlap" sheetId="2" r:id="rId1"/>
@@ -20,12 +21,25 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Irányelvek!$A$1:$L$36</definedName>
     <definedName name="nem_modosithato2">Irányelvek!$J:$J,Irányelvek!$I:$I,Irányelvek!$H$1,Irányelvek!$G:$G,Irányelvek!$H:$H,Irányelvek!$F:$F,Irányelvek!$C:$C,Irányelvek!$B:$B,Irányelvek!$A:$A</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="79">
   <si>
     <t>Neved:</t>
   </si>
@@ -280,15 +294,24 @@
   <si>
     <t>A kezdő oldal szerekezetét bootstrap segítségével valósítsd meg! (A többit is lehet) Reszponzív legyen a szerkezet, kép és szöveg.</t>
   </si>
+  <si>
+    <t>Szabó Bálint</t>
+  </si>
+  <si>
+    <t>szabo.balint@ckik.hu</t>
+  </si>
+  <si>
+    <t>hK_Autók.html</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _F_t_-;\-* #,##0.00\ _F_t_-;_-* &quot;-&quot;??\ _F_t_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode=";;;"/>
-    <numFmt numFmtId="165" formatCode="#,##0_ ;\-#,##0\ "/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _F_t_-;\-* #,##0.00\ _F_t_-;_-* &quot;-&quot;??\ _F_t_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode=";;;"/>
+    <numFmt numFmtId="166" formatCode="#,##0_ ;\-#,##0\ "/>
   </numFmts>
   <fonts count="22" x14ac:knownFonts="1">
     <font>
@@ -972,61 +995,54 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
@@ -1036,145 +1052,165 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1183,51 +1219,21 @@
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Ezres" xfId="1" builtinId="3"/>
@@ -1235,31 +1241,7 @@
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
     <cellStyle name="Százalék" xfId="3" builtinId="5"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF9F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF9F"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -1276,13 +1258,6 @@
         <patternFill>
           <fgColor indexed="64"/>
           <bgColor rgb="FFFFFF9F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1444,7 +1419,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="D5" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="D5" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp40.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1610,6 +1585,11 @@
       <xdr:nvPicPr>
         <xdr:cNvPr id="735075" name="Picture 23">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000063370B00}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
@@ -1685,6 +1665,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s734509"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002D350B00}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -1769,6 +1752,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s734510"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002E350B00}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -1853,6 +1839,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s734511"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002F350B00}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -1937,6 +1926,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s734512"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000030350B00}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -2021,6 +2013,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s734516"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000034350B00}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -2105,6 +2100,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s734517"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000035350B00}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -2189,6 +2187,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s734519"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000037350B00}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -2273,6 +2274,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s734520"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000038350B00}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -2357,6 +2361,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s734521"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000039350B00}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -2441,6 +2448,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s734522"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003A350B00}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -2516,7 +2526,7 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>657225</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>190500</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2524,6 +2534,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s734523"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003B350B00}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2609,6 +2622,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s734524"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003C350B00}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -2693,6 +2709,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s734525"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003D350B00}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -2777,6 +2796,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s734526"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003E350B00}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -2861,6 +2883,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s734540"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004C350B00}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -2945,6 +2970,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s734541"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004D350B00}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -3029,6 +3057,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s734542"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004E350B00}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -3113,6 +3144,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s734543"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004F350B00}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -3197,6 +3231,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s734544"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000050350B00}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -3281,6 +3318,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s734545"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000051350B00}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -3365,6 +3405,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s734546"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000052350B00}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -3449,6 +3492,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s734549"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000055350B00}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -3533,6 +3579,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s734553"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000059350B00}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -3617,6 +3666,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s734554"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00005A350B00}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -3701,6 +3753,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s734555"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00005B350B00}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -3785,6 +3840,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s734557"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00005D350B00}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -3869,6 +3927,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s734558"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00005E350B00}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -3953,6 +4014,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s734559"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00005F350B00}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -4037,6 +4101,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s734560"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000060350B00}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -4121,6 +4188,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s734565"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000065350B00}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -4205,6 +4275,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s734566"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000066350B00}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -4289,6 +4362,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s734567"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000067350B00}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -4373,6 +4449,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s734568"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000068350B00}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -4457,6 +4536,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s734572"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00006C350B00}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -4531,8 +4613,8 @@
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>104775</xdr:colOff>
-          <xdr:row>35</xdr:row>
-          <xdr:rowOff>381000</xdr:rowOff>
+          <xdr:row>36</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4540,6 +4622,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s734573"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00006D350B00}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4625,6 +4710,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s734574"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00006E350B00}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -4709,6 +4797,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s734575"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00006F350B00}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -4793,6 +4884,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s734576"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000070350B00}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -4877,6 +4971,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s734577"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000071350B00}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -4961,6 +5058,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s734581"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000075350B00}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -5045,6 +5145,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s734582"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000076350B00}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -5129,6 +5232,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s734584"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000078350B00}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -5213,6 +5319,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s734585"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000079350B00}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -5297,6 +5406,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s734586"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00007A350B00}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -5381,6 +5493,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s734587"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00007B350B00}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -5456,7 +5571,7 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>695325</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>190500</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5464,6 +5579,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s734588"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00007C350B00}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5549,6 +5667,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s734589"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00007D350B00}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -5633,6 +5754,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s734590"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00007E350B00}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -5717,6 +5841,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s734591"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00007F350B00}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -5801,6 +5928,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s734605"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00008D350B00}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -5885,6 +6015,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s734606"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00008E350B00}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -5969,6 +6102,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s734607"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00008F350B00}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -6053,6 +6189,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s734608"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000090350B00}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -6137,6 +6276,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s734609"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000091350B00}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -6221,6 +6363,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s734610"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000092350B00}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -6305,6 +6450,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s734611"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000093350B00}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -6389,6 +6537,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s734614"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000096350B00}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -6473,6 +6624,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s734618"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00009A350B00}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -6557,6 +6711,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s734619"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00009B350B00}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -6641,6 +6798,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s734620"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00009C350B00}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -6725,6 +6885,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s734622"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00009E350B00}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -6809,6 +6972,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s734623"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00009F350B00}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -6893,6 +7059,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s734624"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000A0350B00}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -6977,6 +7146,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s734625"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000A1350B00}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -7061,6 +7233,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s734630"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000A6350B00}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -7145,6 +7320,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s734631"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000A7350B00}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -7229,6 +7407,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s734632"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000A8350B00}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -7313,6 +7494,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s734633"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000A9350B00}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -7397,6 +7581,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s734637"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000AD350B00}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -7471,8 +7658,8 @@
         <xdr:to>
           <xdr:col>5</xdr:col>
           <xdr:colOff>152400</xdr:colOff>
-          <xdr:row>35</xdr:row>
-          <xdr:rowOff>381000</xdr:rowOff>
+          <xdr:row>36</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7480,6 +7667,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s734638"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000AE350B00}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7547,9 +7737,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-téma">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -7587,9 +7777,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7624,7 +7814,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7659,7 +7849,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -7832,817 +8022,786 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Munka1"/>
-  <dimension ref="A1:R477"/>
+  <dimension ref="A1:J464"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" style="22" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="22" customWidth="1"/>
-    <col min="3" max="3" width="39.85546875" style="22" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="22" customWidth="1"/>
-    <col min="5" max="5" width="4.140625" style="22" customWidth="1"/>
-    <col min="6" max="6" width="40.7109375" style="22" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="22"/>
-    <col min="8" max="8" width="6.140625" style="22" customWidth="1"/>
-    <col min="9" max="9" width="2.42578125" style="22" customWidth="1"/>
-    <col min="10" max="10" width="2.7109375" style="22" customWidth="1"/>
-    <col min="11" max="12" width="9.140625" style="40"/>
-    <col min="13" max="13" width="15.28515625" style="40" customWidth="1"/>
-    <col min="14" max="18" width="9.140625" style="40"/>
-    <col min="19" max="16384" width="9.140625" style="22"/>
+    <col min="1" max="1" width="4.28515625" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" customWidth="1"/>
+    <col min="3" max="3" width="39.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="5" max="5" width="4.140625" customWidth="1"/>
+    <col min="6" max="6" width="40.7109375" customWidth="1"/>
+    <col min="8" max="8" width="6.140625" customWidth="1"/>
+    <col min="9" max="9" width="2.42578125" customWidth="1"/>
+    <col min="10" max="10" width="2.7109375" customWidth="1"/>
+    <col min="13" max="13" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="38"/>
-      <c r="B1" s="86" t="s">
+      <c r="A1" s="31"/>
+      <c r="B1" s="84" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
     </row>
     <row r="2" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A2" s="38"/>
-      <c r="B2" s="42" t="s">
+      <c r="A2" s="31"/>
+      <c r="B2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="91"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
+      <c r="C2" s="89" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
     </row>
     <row r="3" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A3" s="38"/>
-      <c r="B3" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="93"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="91" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
     </row>
     <row r="4" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A4" s="38"/>
-      <c r="B4" s="42" t="s">
+      <c r="A4" s="31"/>
+      <c r="B4" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="91"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
-      <c r="F4" s="95"/>
-      <c r="G4" s="95"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
+      <c r="C4" s="89" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="38"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
+      <c r="A5" s="31"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
     </row>
     <row r="6" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="38"/>
-      <c r="B6" s="94" t="s">
+      <c r="A6" s="31"/>
+      <c r="B6" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="94"/>
-      <c r="D6" s="94"/>
-      <c r="E6" s="94"/>
-      <c r="F6" s="94"/>
-      <c r="G6" s="94"/>
-      <c r="H6" s="94"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="92"/>
+      <c r="H6" s="92"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
     </row>
     <row r="7" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="38"/>
-      <c r="B7" s="97" t="str">
+      <c r="A7" s="31"/>
+      <c r="B7" s="95" t="str">
         <f>CONCATENATE("Az irányelvek között vannak kiemelt (sárga háttérszínnel és félkövér kiemeléssel jelölt) elvek , amelyek betartására kiemelten figyelni kell! Az elégséges szinthez legalább ",D11," pontot el kell érni. A tanulói és tanári értékelés tekintetében, maximum 10 darab irányelvben lehet eltérés.")</f>
         <v>Az irányelvek között vannak kiemelt (sárga háttérszínnel és félkövér kiemeléssel jelölt) elvek , amelyek betartására kiemelten figyelni kell! Az elégséges szinthez legalább 20 pontot el kell érni. A tanulói és tanári értékelés tekintetében, maximum 10 darab irányelvben lehet eltérés.</v>
       </c>
-      <c r="C7" s="97"/>
-      <c r="D7" s="97"/>
-      <c r="E7" s="97"/>
-      <c r="F7" s="97"/>
-      <c r="G7" s="97"/>
-      <c r="H7" s="97"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
+      <c r="C7" s="95"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="95"/>
+      <c r="F7" s="95"/>
+      <c r="G7" s="95"/>
+      <c r="H7" s="95"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="38"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
+      <c r="A8" s="31"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="38"/>
-      <c r="B9" s="39" t="s">
+      <c r="A9" s="31"/>
+      <c r="B9" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
     </row>
     <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="38"/>
-      <c r="B10" s="84" t="s">
+      <c r="A10" s="31"/>
+      <c r="B10" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="85"/>
-      <c r="D10" s="81">
+      <c r="C10" s="83"/>
+      <c r="D10" s="71">
         <f>SUM(Irányelvek!G:G)</f>
         <v>80</v>
       </c>
-      <c r="E10" s="38"/>
-      <c r="F10" s="103" t="s">
+      <c r="E10" s="31"/>
+      <c r="F10" s="80" t="s">
         <v>45</v>
       </c>
-      <c r="G10" s="103"/>
-      <c r="H10" s="103"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="38"/>
+      <c r="G10" s="80"/>
+      <c r="H10" s="80"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="38"/>
-      <c r="B11" s="88" t="s">
+      <c r="A11" s="31"/>
+      <c r="B11" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="89"/>
-      <c r="D11" s="82">
+      <c r="C11" s="87"/>
+      <c r="D11" s="72">
         <v>20</v>
       </c>
-      <c r="E11" s="38"/>
-      <c r="F11" s="104"/>
-      <c r="G11" s="104"/>
-      <c r="H11" s="104"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="38"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="81"/>
+      <c r="H11" s="81"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="38"/>
-      <c r="B12" s="84" t="s">
+      <c r="A12" s="31"/>
+      <c r="B12" s="82" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="85"/>
-      <c r="D12" s="81">
+      <c r="C12" s="83"/>
+      <c r="D12" s="71">
         <v>20</v>
       </c>
-      <c r="E12" s="38"/>
-      <c r="F12" s="104"/>
-      <c r="G12" s="104"/>
-      <c r="H12" s="104"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="38"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="81"/>
+      <c r="H12" s="81"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="38"/>
-      <c r="B13" s="84" t="s">
+      <c r="A13" s="31"/>
+      <c r="B13" s="82" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="85"/>
-      <c r="D13" s="81">
+      <c r="C13" s="83"/>
+      <c r="D13" s="71">
         <v>40</v>
       </c>
-      <c r="E13" s="38"/>
-      <c r="F13" s="104"/>
-      <c r="G13" s="104"/>
-      <c r="H13" s="104"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="81"/>
+      <c r="H13" s="81"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="38"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="104"/>
-      <c r="G14" s="104"/>
-      <c r="H14" s="104"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="38"/>
+      <c r="A14" s="31"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="81"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="38"/>
-      <c r="B15" s="39" t="s">
+      <c r="A15" s="31"/>
+      <c r="B15" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="38"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
     </row>
     <row r="16" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="38"/>
-      <c r="B16" s="84" t="s">
+      <c r="A16" s="31"/>
+      <c r="B16" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="85"/>
-      <c r="D16" s="37" t="b">
+      <c r="C16" s="83"/>
+      <c r="D16" s="30" t="b">
         <f t="array" ref="D16">IF(COUNTIFS(Irányelvek!D2:D36,"=hamis",Irányelvek!F2:F36,"=Igaz")=0,TRUE,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
+        <v>0</v>
+      </c>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
     </row>
     <row r="17" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="38"/>
-      <c r="B17" s="84" t="s">
+      <c r="A17" s="31"/>
+      <c r="B17" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="85"/>
-      <c r="D17" s="41">
+      <c r="C17" s="83"/>
+      <c r="D17" s="33">
         <f>SUM(Irányelvek!H2:H36)</f>
-        <v>80</v>
-      </c>
-      <c r="E17" s="38"/>
-      <c r="F17" s="102" t="str">
+        <v>76</v>
+      </c>
+      <c r="E17" s="31"/>
+      <c r="F17" s="79" t="str">
         <f>VLOOKUP(D20,Ponthatárok!$C$3:$D$7,2,TRUE)</f>
         <v>Jeles (5)</v>
       </c>
-      <c r="G17" s="102"/>
-      <c r="H17" s="102"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
+      <c r="G17" s="79"/>
+      <c r="H17" s="79"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
     </row>
     <row r="18" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="38"/>
-      <c r="B18" s="100" t="s">
+      <c r="A18" s="31"/>
+      <c r="B18" s="96" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="101"/>
-      <c r="D18" s="44">
+      <c r="C18" s="97"/>
+      <c r="D18" s="36">
         <f>IF(D17&gt;D11,VLOOKUP(SUM(Irányelvek!J2:J36),Ponthatárok!G2:H12,2,TRUE),0)</f>
         <v>20</v>
       </c>
-      <c r="E18" s="38"/>
-      <c r="F18" s="102"/>
-      <c r="G18" s="102"/>
-      <c r="H18" s="102"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="79"/>
+      <c r="G18" s="79"/>
+      <c r="H18" s="79"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="38"/>
-      <c r="B19" s="98" t="s">
+      <c r="A19" s="31"/>
+      <c r="B19" s="82" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="99"/>
-      <c r="D19" s="83">
+      <c r="C19" s="83"/>
+      <c r="D19" s="73">
         <v>40</v>
       </c>
-      <c r="E19" s="38"/>
-      <c r="F19" s="102"/>
-      <c r="G19" s="102"/>
-      <c r="H19" s="102"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="79"/>
+      <c r="G19" s="79"/>
+      <c r="H19" s="79"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="38"/>
-      <c r="B20" s="84" t="s">
+      <c r="A20" s="31"/>
+      <c r="B20" s="82" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="85"/>
-      <c r="D20" s="41">
+      <c r="C20" s="83"/>
+      <c r="D20" s="33">
         <f>SUM(D17:D19)</f>
-        <v>140</v>
-      </c>
-      <c r="E20" s="38"/>
-      <c r="F20" s="90" t="str">
+        <v>136</v>
+      </c>
+      <c r="E20" s="31"/>
+      <c r="F20" s="88" t="str">
         <f>CONCATENATE("Az önértékelés alapján ",VLOOKUP(D20,Ponthatárok!$C$3:$D$7,2,TRUE), "  érdemjegyet kapnál rá.")</f>
         <v>Az önértékelés alapján Jeles (5)  érdemjegyet kapnál rá.</v>
       </c>
-      <c r="G20" s="90"/>
-      <c r="H20" s="90"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
+      <c r="G20" s="88"/>
+      <c r="H20" s="88"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="38"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="38"/>
+      <c r="A21" s="31"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
     </row>
-    <row r="22" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="33" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="44" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="47" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="48" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="49" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="51" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="52" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="56" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="57" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="65" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="66" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="68" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="69" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="70" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="71" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="72" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="73" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="74" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="75" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="76" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="77" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="79" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="81" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="82" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="83" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="84" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="85" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="86" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="87" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="88" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="89" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="90" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="91" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="92" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="93" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="94" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="95" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="96" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="97" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="98" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="99" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="100" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="101" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="102" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="103" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="104" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="105" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="106" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="107" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="108" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="109" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="110" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="111" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="112" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="113" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="114" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="115" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="116" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="117" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="118" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="119" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="120" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="121" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="122" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="123" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="124" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="125" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="126" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="127" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="128" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="129" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="130" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="131" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="132" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="133" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="134" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="135" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="136" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="137" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="138" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="139" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="140" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="141" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="142" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="143" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="144" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="145" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="146" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="147" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="148" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="149" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="150" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="151" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="152" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="153" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="154" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="155" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="156" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="157" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="158" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="159" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="160" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="161" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="162" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="163" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="164" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="165" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="166" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="167" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="168" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="169" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="170" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="171" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="172" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="173" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="174" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="175" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="176" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="177" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="178" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="179" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="180" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="181" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="182" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="183" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="184" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="185" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="186" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="187" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="188" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="189" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="190" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="191" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="192" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="193" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="194" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="195" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="196" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="197" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="198" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="199" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="200" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="201" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="202" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="203" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="204" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="205" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="206" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="207" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="208" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="209" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="210" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="211" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="212" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="213" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="214" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="215" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="216" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="217" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="218" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="219" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="220" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="221" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="222" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="223" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="224" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="225" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="226" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="227" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="228" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="229" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="230" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="231" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="232" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="233" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="234" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="235" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="236" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="237" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="238" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="239" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="240" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="241" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="242" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="243" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="244" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="245" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="246" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="247" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="248" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="249" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="250" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="251" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="252" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="253" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="254" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="255" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="256" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="257" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="258" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="259" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="260" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="261" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="262" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="263" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="264" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="265" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="266" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="267" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="268" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="269" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="270" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="271" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="272" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="273" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="274" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="275" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="276" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="277" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="278" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="279" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="280" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="281" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="282" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="283" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="284" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="285" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="286" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="287" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="288" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="289" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="290" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="291" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="292" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="293" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="294" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="295" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="296" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="297" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="298" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="299" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="300" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="301" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="302" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="303" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="304" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="305" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="306" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="307" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="308" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="309" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="310" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="311" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="312" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="313" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="314" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="315" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="316" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="317" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="318" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="319" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="320" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="321" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="322" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="323" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="324" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="325" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="326" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="327" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="328" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="329" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="330" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="331" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="332" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="333" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="334" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="335" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="336" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="337" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="338" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="339" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="340" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="341" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="342" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="343" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="344" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="345" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="346" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="347" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="348" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="349" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="350" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="351" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="352" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="353" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="354" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="355" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="356" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="357" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="358" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="359" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="360" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="361" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="362" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="363" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="364" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="365" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="366" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="367" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="368" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="369" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="370" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="371" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="372" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="373" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="374" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="375" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="376" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="377" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="378" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="379" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="380" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="381" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="382" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="383" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="384" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="385" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="386" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="387" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="388" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="389" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="390" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="391" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="392" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="393" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="394" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="395" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="396" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="397" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="398" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="399" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="400" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="401" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="402" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="403" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="404" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="405" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="406" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="407" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="408" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="409" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="410" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="411" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="412" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="413" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="414" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="415" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="416" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="417" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="418" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="419" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="420" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="421" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="422" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="423" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="424" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="425" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="426" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="427" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="428" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="429" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="430" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="431" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="432" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="433" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="434" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="435" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="436" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="437" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="438" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="439" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="440" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="441" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="442" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="443" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="444" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="445" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="446" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="447" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="448" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="449" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="450" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="451" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="452" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="453" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="454" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="455" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="456" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="457" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="458" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="459" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="460" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="461" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="462" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="463" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="464" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="465" spans="1:5" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="466" spans="1:5" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="467" spans="1:5" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="468" spans="1:5" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="469" spans="1:5" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="470" spans="1:5" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="471" spans="1:5" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="472" spans="1:5" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="473" spans="1:5" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="474" spans="1:5" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="475" spans="1:5" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="476" spans="1:5" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A477" s="40"/>
-      <c r="E477" s="40"/>
-    </row>
+    <row r="33" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="86" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="88" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="89" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="90" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="92" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="94" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="95" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="96" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="97" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="98" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="99" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="100" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="101" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="102" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="103" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="104" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="105" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="106" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="107" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="108" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="109" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="110" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="111" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="112" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="113" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="114" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="115" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="116" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="117" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="118" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="119" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="120" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="121" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="122" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="123" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="124" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="125" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="126" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="127" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="128" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="129" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="130" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="131" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="132" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="133" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="134" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="135" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="136" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="137" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="138" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="139" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="140" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="141" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="142" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="143" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="144" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="145" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="146" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="147" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="148" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="149" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="150" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="151" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="152" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="153" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="154" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="155" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="156" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="157" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="158" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="159" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="160" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="161" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="162" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="163" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="164" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="165" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="166" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="167" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="168" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="169" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="170" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="171" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="172" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="173" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="174" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="175" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="176" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="177" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="178" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="179" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="180" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="181" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="182" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="183" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="184" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="185" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="186" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="187" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="188" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="189" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="190" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="191" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="192" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="193" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="194" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="195" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="196" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="197" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="198" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="199" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="200" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="201" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="202" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="203" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="204" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="205" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="206" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="207" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="208" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="209" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="210" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="211" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="212" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="213" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="214" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="215" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="216" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="217" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="218" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="219" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="220" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="221" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="222" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="223" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="224" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="225" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="226" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="227" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="228" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="229" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="230" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="231" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="232" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="233" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="234" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="235" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="236" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="237" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="238" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="239" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="240" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="241" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="242" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="243" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="244" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="245" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="246" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="247" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="248" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="249" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="250" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="251" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="252" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="253" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="254" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="255" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="256" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="257" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="258" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="259" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="260" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="261" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="262" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="263" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="264" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="265" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="266" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="267" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="268" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="269" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="270" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="271" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="272" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="273" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="274" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="275" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="276" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="277" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="278" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="279" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="280" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="281" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="282" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="283" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="284" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="285" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="286" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="287" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="288" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="289" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="290" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="291" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="292" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="293" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="294" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="295" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="296" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="297" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="298" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="299" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="300" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="301" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="302" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="303" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="304" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="305" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="306" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="307" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="308" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="309" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="310" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="311" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="312" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="313" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="314" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="315" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="316" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="317" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="318" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="319" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="320" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="321" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="322" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="323" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="324" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="325" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="326" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="327" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="328" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="329" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="330" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="331" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="332" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="333" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="334" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="335" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="336" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="337" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="338" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="339" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="340" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="341" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="342" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="343" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="344" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="345" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="346" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="347" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="348" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="349" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="350" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="351" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="352" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="353" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="354" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="355" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="356" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="357" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="358" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="359" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="360" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="361" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="362" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="363" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="364" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="365" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="366" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="367" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="368" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="369" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="370" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="371" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="372" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="373" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="374" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="375" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="376" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="377" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="378" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="379" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="380" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="381" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="382" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="383" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="384" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="385" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="386" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="387" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="388" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="389" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="390" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="391" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="392" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="393" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="394" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="395" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="396" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="397" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="398" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="399" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="400" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="401" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="402" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="403" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="404" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="405" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="406" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="407" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="408" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="409" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="410" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="411" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="412" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="413" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="414" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="415" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="416" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="417" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="418" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="419" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="420" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="421" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="422" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="423" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="424" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="425" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="426" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="427" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="428" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="429" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="430" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="431" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="432" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="433" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="434" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="435" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="436" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="437" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="438" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="439" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="440" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="441" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="442" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="443" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="444" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="445" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="446" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="447" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="448" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="449" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="450" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="451" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="452" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="453" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="454" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="455" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="456" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="457" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="458" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="459" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="460" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="461" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="462" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="463" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="464" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="F17:H19"/>
-    <mergeCell ref="F10:H14"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B11:C11"/>
     <mergeCell ref="F20:H20"/>
     <mergeCell ref="C2:H2"/>
     <mergeCell ref="C3:H3"/>
@@ -8655,1308 +8814,1298 @@
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B18:C18"/>
+    <mergeCell ref="F17:H19"/>
+    <mergeCell ref="F10:H14"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B11:C11"/>
   </mergeCells>
-  <conditionalFormatting sqref="D17">
-    <cfRule type="expression" dxfId="5" priority="10" stopIfTrue="1">
-      <formula>$D$17&gt;=$D$11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D18:D20">
-    <cfRule type="expression" dxfId="4" priority="1" stopIfTrue="1">
+  <conditionalFormatting sqref="D17:D20">
+    <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
       <formula>$D$17&gt;=$D$11</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B6" location="Irányelvek!A1" display="Az irányelvek megtekintése és az adatlap kitöltése"/>
-    <hyperlink ref="B6:H6" location="Irányelvek!A1" display="Az irányelvek megtekintése és az adatlap kitöltése"/>
+    <hyperlink ref="B6" location="Irányelvek!A1" display="Az irányelvek megtekintése és az adatlap kitöltése" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B6:H6" location="Irányelvek!A1" display="Az irányelvek megtekintése és az adatlap kitöltése" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{0B1007D3-4274-483F-B75E-9CE850EFB770}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Munka2"/>
   <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.140625" style="40" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" style="35" customWidth="1"/>
-    <col min="3" max="3" width="54.140625" style="36" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" style="29" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" style="30" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" style="22" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="22"/>
-    <col min="8" max="8" width="13" style="22" customWidth="1"/>
-    <col min="9" max="9" width="16" style="22" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" style="22" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" style="28" customWidth="1"/>
+    <col min="3" max="3" width="54.140625" style="29" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="22" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" style="23" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
+    <col min="9" max="9" width="16" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" customWidth="1"/>
     <col min="11" max="11" width="11.7109375" customWidth="1"/>
     <col min="12" max="12" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="5" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="75"/>
-      <c r="B1" s="106" t="s">
+    <row r="1" spans="1:12" s="3" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="65"/>
+      <c r="B1" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="107" t="s">
+      <c r="C1" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="108" t="s">
+      <c r="D1" s="77" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="108" t="s">
+      <c r="E1" s="77" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="107" t="s">
+      <c r="F1" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="107" t="s">
+      <c r="G1" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="107" t="s">
+      <c r="H1" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="107" t="s">
+      <c r="I1" s="76" t="s">
         <v>50</v>
       </c>
-      <c r="J1" s="109" t="s">
+      <c r="J1" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="6"/>
+      <c r="L1" s="4"/>
     </row>
-    <row r="2" spans="1:12" s="2" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="76">
-        <v>1</v>
-      </c>
-      <c r="B2" s="69" t="s">
+    <row r="2" spans="1:12" s="1" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="66">
+        <v>1</v>
+      </c>
+      <c r="B2" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="46" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2" s="46" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2" s="47" t="b">
-        <v>1</v>
-      </c>
-      <c r="G2" s="48">
+      <c r="D2" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" s="39" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" s="39">
         <v>2</v>
       </c>
-      <c r="H2" s="48">
+      <c r="H2" s="39">
         <f>IF(D2=TRUE,G2,IF(F2=TRUE,-2,""))</f>
         <v>2</v>
       </c>
-      <c r="I2" s="49">
+      <c r="I2" s="40">
         <f>IF(E2=TRUE,G2,IF(F2=TRUE,-2,""))</f>
         <v>2</v>
       </c>
-      <c r="J2" s="50">
+      <c r="J2" s="41">
         <f>IF(H2=I2,0,1)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="77">
+    <row r="3" spans="1:12" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="67">
         <v>2</v>
       </c>
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="E3" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="F3" s="18"/>
-      <c r="G3" s="19">
-        <v>1</v>
-      </c>
-      <c r="H3" s="16">
+      <c r="D3" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2">
+        <v>1</v>
+      </c>
+      <c r="H3" s="13">
         <f t="shared" ref="H3:H36" si="0">IF(D3=TRUE,G3,IF(F3=TRUE,-2,""))</f>
         <v>1</v>
       </c>
-      <c r="I3" s="17">
+      <c r="I3" s="14">
         <f t="shared" ref="I3:I36" si="1">IF(E3=TRUE,G3,IF(F3=TRUE,-2,""))</f>
         <v>1</v>
       </c>
-      <c r="J3" s="51">
+      <c r="J3" s="42">
         <f t="shared" ref="J3:J36" si="2">IF(H3=I3,0,1)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="77">
+    <row r="4" spans="1:12" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="67">
         <v>3</v>
       </c>
-      <c r="B4" s="71" t="s">
+      <c r="B4" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="G4" s="19">
+      <c r="D4" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2">
         <v>2</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="13">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="I4" s="17">
+      <c r="I4" s="14">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="J4" s="51">
+      <c r="J4" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L4" s="8"/>
+      <c r="L4" s="6"/>
     </row>
-    <row r="5" spans="1:12" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="77">
+    <row r="5" spans="1:12" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="67">
         <v>4</v>
       </c>
-      <c r="B5" s="70" t="s">
+      <c r="B5" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="D5" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="F5" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5" s="19">
+      <c r="D5" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2">
         <v>2</v>
       </c>
-      <c r="H5" s="16">
+      <c r="H5" s="13">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="I5" s="14">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J5" s="42">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L5" s="7"/>
+    </row>
+    <row r="6" spans="1:12" s="1" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="67">
+        <v>6</v>
+      </c>
+      <c r="B6" s="60" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2">
+        <v>2</v>
+      </c>
+      <c r="H6" s="13">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="I5" s="17">
+      <c r="I6" s="14">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="J5" s="51">
+      <c r="J6" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L5" s="9"/>
     </row>
-    <row r="6" spans="1:12" s="2" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="77">
-        <v>6</v>
-      </c>
-      <c r="B6" s="70" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="D6" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="E6" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="F6" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="G6" s="19">
+    <row r="7" spans="1:12" s="1" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="68">
+        <v>7</v>
+      </c>
+      <c r="B7" s="59" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" s="46">
+        <v>3</v>
+      </c>
+      <c r="H7" s="47">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I7" s="48">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="J7" s="49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="67">
+        <v>9</v>
+      </c>
+      <c r="B8" s="63" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2">
+        <v>1</v>
+      </c>
+      <c r="H8" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I8" s="14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J8" s="42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="67">
+        <v>10</v>
+      </c>
+      <c r="B9" s="60" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2">
+        <v>5</v>
+      </c>
+      <c r="H9" s="13">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I9" s="14">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="J9" s="42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="67">
+        <v>11</v>
+      </c>
+      <c r="B10" s="60" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" s="2">
+        <v>5</v>
+      </c>
+      <c r="H10" s="13">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I10" s="14">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="J10" s="42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="67">
+        <v>12</v>
+      </c>
+      <c r="B11" s="60" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2">
+        <v>1</v>
+      </c>
+      <c r="H11" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I11" s="14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J11" s="42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="67">
+        <v>13</v>
+      </c>
+      <c r="B12" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="F12" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12" s="15">
+        <v>5</v>
+      </c>
+      <c r="H12" s="56">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I12" s="57">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="J12" s="58">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="67">
+        <v>14</v>
+      </c>
+      <c r="B13" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" s="55" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" s="52" t="b">
+        <v>1</v>
+      </c>
+      <c r="F13" s="39" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13" s="39">
+        <v>5</v>
+      </c>
+      <c r="H13" s="39">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I13" s="40">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="J13" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="67">
+        <v>15</v>
+      </c>
+      <c r="B14" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2">
+        <v>3</v>
+      </c>
+      <c r="H14" s="13">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I14" s="14">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="J14" s="42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="67">
+        <v>17</v>
+      </c>
+      <c r="B15" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="74" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="F15" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G15" s="2">
         <v>2</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H15" s="13">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="I6" s="17">
+      <c r="I15" s="14">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="J6" s="51">
+      <c r="J15" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="2" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="78">
-        <v>7</v>
-      </c>
-      <c r="B7" s="69" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="61" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="53" t="b">
-        <v>1</v>
-      </c>
-      <c r="E7" s="54" t="b">
-        <v>1</v>
-      </c>
-      <c r="F7" s="55" t="b">
-        <v>1</v>
-      </c>
-      <c r="G7" s="56">
-        <v>3</v>
-      </c>
-      <c r="H7" s="57">
+    <row r="16" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="67">
+        <v>21</v>
+      </c>
+      <c r="B16" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="55" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" s="52" t="b">
+        <v>1</v>
+      </c>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39">
+        <v>1</v>
+      </c>
+      <c r="H16" s="39">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="I7" s="58">
+        <v>1</v>
+      </c>
+      <c r="I16" s="40">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="J7" s="59">
+        <v>1</v>
+      </c>
+      <c r="J16" s="41">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="77">
-        <v>9</v>
-      </c>
-      <c r="B8" s="73" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="E8" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="F8" s="18"/>
-      <c r="G8" s="19">
-        <v>1</v>
-      </c>
-      <c r="H8" s="16">
+    <row r="17" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="67">
+        <v>22</v>
+      </c>
+      <c r="B17" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2">
+        <v>1</v>
+      </c>
+      <c r="H17" s="13">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I8" s="17">
+      <c r="I17" s="14">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J8" s="51">
+      <c r="J17" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="77">
-        <v>10</v>
-      </c>
-      <c r="B9" s="70" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="E9" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="F9" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="G9" s="19">
+    <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="67">
+        <v>23</v>
+      </c>
+      <c r="B18" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="E18" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2">
+        <v>1</v>
+      </c>
+      <c r="H18" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I18" s="14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J18" s="42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="67">
+        <v>24</v>
+      </c>
+      <c r="B19" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="E19" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2">
+        <v>1</v>
+      </c>
+      <c r="H19" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I19" s="14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J19" s="42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="67">
+        <v>25</v>
+      </c>
+      <c r="B20" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="E20" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2">
+        <v>1</v>
+      </c>
+      <c r="H20" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I20" s="14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J20" s="42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="67">
+        <v>26</v>
+      </c>
+      <c r="B21" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="E21" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2">
+        <v>1</v>
+      </c>
+      <c r="H21" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I21" s="14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J21" s="42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="67">
+        <v>27</v>
+      </c>
+      <c r="B22" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2">
+        <v>1</v>
+      </c>
+      <c r="H22" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I22" s="14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J22" s="42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="69">
+        <v>28</v>
+      </c>
+      <c r="B23" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="E23" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="F23" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="G23" s="15">
+        <v>4</v>
+      </c>
+      <c r="H23" s="56">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I23" s="57">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="J23" s="58">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="66">
+        <v>29</v>
+      </c>
+      <c r="B24" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" s="55" t="b">
+        <v>1</v>
+      </c>
+      <c r="E24" s="52" t="b">
+        <v>1</v>
+      </c>
+      <c r="F24" s="39" t="b">
+        <v>1</v>
+      </c>
+      <c r="G24" s="39">
+        <v>4</v>
+      </c>
+      <c r="H24" s="39">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I24" s="40">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="J24" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="67">
+        <v>30</v>
+      </c>
+      <c r="B25" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="E25" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2">
+        <v>1</v>
+      </c>
+      <c r="H25" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I25" s="14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J25" s="42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="67">
+        <v>31</v>
+      </c>
+      <c r="B26" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="E26" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2">
+        <v>1</v>
+      </c>
+      <c r="H26" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I26" s="14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J26" s="42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="68">
+        <v>32</v>
+      </c>
+      <c r="B27" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="54" t="b">
+        <v>1</v>
+      </c>
+      <c r="E27" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="F27" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="G27" s="46">
+        <v>2</v>
+      </c>
+      <c r="H27" s="47">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I27" s="48">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J27" s="49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="66">
+        <v>33</v>
+      </c>
+      <c r="B28" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="55" t="b">
+        <v>1</v>
+      </c>
+      <c r="E28" s="52" t="b">
+        <v>1</v>
+      </c>
+      <c r="F28" s="39" t="b">
+        <v>1</v>
+      </c>
+      <c r="G28" s="39">
+        <v>2</v>
+      </c>
+      <c r="H28" s="39">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I28" s="40">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J28" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="67">
+        <v>34</v>
+      </c>
+      <c r="B29" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="E29" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2">
+        <v>1</v>
+      </c>
+      <c r="H29" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I29" s="14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J29" s="42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="67">
+        <v>35</v>
+      </c>
+      <c r="B30" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="E30" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="F30" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G30" s="2">
+        <v>2</v>
+      </c>
+      <c r="H30" s="13">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I30" s="14">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J30" s="42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="68">
+        <v>36</v>
+      </c>
+      <c r="B31" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31" s="54" t="b">
+        <v>1</v>
+      </c>
+      <c r="E31" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="F31" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="G31" s="46">
+        <v>2</v>
+      </c>
+      <c r="H31" s="47">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I31" s="48">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J31" s="49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="66">
+        <v>37</v>
+      </c>
+      <c r="B32" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" s="55" t="b">
+        <v>1</v>
+      </c>
+      <c r="E32" s="52" t="b">
+        <v>1</v>
+      </c>
+      <c r="F32" s="39" t="b">
+        <v>1</v>
+      </c>
+      <c r="G32" s="39">
+        <v>1</v>
+      </c>
+      <c r="H32" s="39">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I32" s="40">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J32" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="67">
+        <v>38</v>
+      </c>
+      <c r="B33" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="E33" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="F33" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G33" s="2">
+        <v>2</v>
+      </c>
+      <c r="H33" s="13">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I33" s="14">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J33" s="42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="67">
+        <v>39</v>
+      </c>
+      <c r="B34" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="D34" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="E34" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="F34" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G34" s="2">
+        <v>2</v>
+      </c>
+      <c r="H34" s="13">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I34" s="14">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J34" s="42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="67">
+        <v>40</v>
+      </c>
+      <c r="B35" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D35" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="E35" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="F35" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G35" s="2">
         <v>5</v>
       </c>
-      <c r="H9" s="16">
+      <c r="H35" s="13">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I9" s="17">
+      <c r="I35" s="14">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="J9" s="51">
+      <c r="J35" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="77">
-        <v>11</v>
-      </c>
-      <c r="B10" s="70" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="E10" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="F10" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="G10" s="19">
+    <row r="36" spans="1:10" s="1" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="68">
+        <v>41</v>
+      </c>
+      <c r="B36" s="62" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" s="70" t="b">
+        <v>1</v>
+      </c>
+      <c r="E36" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="F36" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="G36" s="46">
         <v>5</v>
       </c>
-      <c r="H10" s="16">
+      <c r="H36" s="47">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I10" s="17">
+      <c r="I36" s="48">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="J10" s="51">
+      <c r="J36" s="49">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="77">
-        <v>12</v>
-      </c>
-      <c r="B11" s="70" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="E11" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="F11" s="18"/>
-      <c r="G11" s="19">
-        <v>1</v>
-      </c>
-      <c r="H11" s="16">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I11" s="17">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="J11" s="51">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="77">
-        <v>13</v>
-      </c>
-      <c r="B12" s="74" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="D12" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="E12" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="F12" s="20" t="b">
-        <v>1</v>
-      </c>
-      <c r="G12" s="21">
-        <v>5</v>
-      </c>
-      <c r="H12" s="66">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="I12" s="67">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="J12" s="68">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="77">
-        <v>14</v>
-      </c>
-      <c r="B13" s="60" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="D13" s="65" t="b">
-        <v>1</v>
-      </c>
-      <c r="E13" s="62" t="b">
-        <v>1</v>
-      </c>
-      <c r="F13" s="47" t="b">
-        <v>1</v>
-      </c>
-      <c r="G13" s="48">
-        <v>5</v>
-      </c>
-      <c r="H13" s="48">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="I13" s="49">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="J13" s="50">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="77">
-        <v>15</v>
-      </c>
-      <c r="B14" s="63" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="D14" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="E14" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="F14" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="G14" s="19">
-        <v>3</v>
-      </c>
-      <c r="H14" s="16">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="I14" s="17">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="J14" s="51">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="77">
-        <v>17</v>
-      </c>
-      <c r="B15" s="63" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="D15" s="105" t="b">
-        <v>1</v>
-      </c>
-      <c r="E15" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="F15" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="G15" s="19">
-        <v>2</v>
-      </c>
-      <c r="H15" s="16">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="I15" s="17">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="J15" s="51">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K15" s="1"/>
-    </row>
-    <row r="16" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="77">
-        <v>21</v>
-      </c>
-      <c r="B16" s="69" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="65" t="b">
-        <v>1</v>
-      </c>
-      <c r="E16" s="62" t="b">
-        <v>1</v>
-      </c>
-      <c r="F16" s="47"/>
-      <c r="G16" s="48">
-        <v>1</v>
-      </c>
-      <c r="H16" s="48">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I16" s="49">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="J16" s="50">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="77">
-        <v>22</v>
-      </c>
-      <c r="B17" s="70" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="E17" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="F17" s="18"/>
-      <c r="G17" s="19">
-        <v>1</v>
-      </c>
-      <c r="H17" s="16">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I17" s="17">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="J17" s="51">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="77">
-        <v>23</v>
-      </c>
-      <c r="B18" s="70" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="E18" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="F18" s="18"/>
-      <c r="G18" s="19">
-        <v>1</v>
-      </c>
-      <c r="H18" s="16">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I18" s="17">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="J18" s="51">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="77">
-        <v>24</v>
-      </c>
-      <c r="B19" s="70" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="E19" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="F19" s="18"/>
-      <c r="G19" s="19">
-        <v>1</v>
-      </c>
-      <c r="H19" s="16">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I19" s="17">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="J19" s="51">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="77">
-        <v>25</v>
-      </c>
-      <c r="B20" s="70" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="E20" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="F20" s="18"/>
-      <c r="G20" s="19">
-        <v>1</v>
-      </c>
-      <c r="H20" s="16">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I20" s="17">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="J20" s="51">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="77">
-        <v>26</v>
-      </c>
-      <c r="B21" s="70" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="E21" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="F21" s="18"/>
-      <c r="G21" s="19">
-        <v>1</v>
-      </c>
-      <c r="H21" s="16">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I21" s="17">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="J21" s="51">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="77">
-        <v>27</v>
-      </c>
-      <c r="B22" s="70" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="E22" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="F22" s="18"/>
-      <c r="G22" s="19">
-        <v>1</v>
-      </c>
-      <c r="H22" s="16">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I22" s="17">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="J22" s="51">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" s="1" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="79">
-        <v>28</v>
-      </c>
-      <c r="B23" s="74" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="E23" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="F23" s="20" t="b">
-        <v>1</v>
-      </c>
-      <c r="G23" s="21">
-        <v>4</v>
-      </c>
-      <c r="H23" s="66">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="I23" s="67">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="J23" s="68">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="76">
-        <v>29</v>
-      </c>
-      <c r="B24" s="69" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" s="61" t="s">
-        <v>65</v>
-      </c>
-      <c r="D24" s="65" t="b">
-        <v>1</v>
-      </c>
-      <c r="E24" s="62" t="b">
-        <v>1</v>
-      </c>
-      <c r="F24" s="47" t="b">
-        <v>1</v>
-      </c>
-      <c r="G24" s="48">
-        <v>4</v>
-      </c>
-      <c r="H24" s="48">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="I24" s="49">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="J24" s="50">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="77">
-        <v>30</v>
-      </c>
-      <c r="B25" s="70" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="E25" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="F25" s="18"/>
-      <c r="G25" s="19">
-        <v>1</v>
-      </c>
-      <c r="H25" s="16">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I25" s="17">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="J25" s="51">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="77">
-        <v>31</v>
-      </c>
-      <c r="B26" s="70" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="D26" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="E26" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="F26" s="18"/>
-      <c r="G26" s="19">
-        <v>1</v>
-      </c>
-      <c r="H26" s="16">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I26" s="17">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="J26" s="51">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" s="1" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="78">
-        <v>32</v>
-      </c>
-      <c r="B27" s="72" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" s="52" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="64" t="b">
-        <v>1</v>
-      </c>
-      <c r="E27" s="54" t="b">
-        <v>1</v>
-      </c>
-      <c r="F27" s="55" t="b">
-        <v>1</v>
-      </c>
-      <c r="G27" s="56">
-        <v>2</v>
-      </c>
-      <c r="H27" s="57">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="I27" s="58">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="J27" s="59">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="76">
-        <v>33</v>
-      </c>
-      <c r="B28" s="69" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="61" t="s">
-        <v>42</v>
-      </c>
-      <c r="D28" s="65" t="b">
-        <v>1</v>
-      </c>
-      <c r="E28" s="62" t="b">
-        <v>1</v>
-      </c>
-      <c r="F28" s="47" t="b">
-        <v>1</v>
-      </c>
-      <c r="G28" s="48">
-        <v>2</v>
-      </c>
-      <c r="H28" s="48">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="I28" s="49">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="J28" s="50">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="77">
-        <v>34</v>
-      </c>
-      <c r="B29" s="70" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="D29" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="E29" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="F29" s="18"/>
-      <c r="G29" s="19">
-        <v>1</v>
-      </c>
-      <c r="H29" s="16">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I29" s="17">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="J29" s="51">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="77">
-        <v>35</v>
-      </c>
-      <c r="B30" s="70" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="D30" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="E30" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="F30" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="G30" s="19">
-        <v>2</v>
-      </c>
-      <c r="H30" s="16">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="I30" s="17">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="J30" s="51">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="78">
-        <v>36</v>
-      </c>
-      <c r="B31" s="72" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="D31" s="64" t="b">
-        <v>1</v>
-      </c>
-      <c r="E31" s="54" t="b">
-        <v>1</v>
-      </c>
-      <c r="F31" s="55" t="b">
-        <v>1</v>
-      </c>
-      <c r="G31" s="56">
-        <v>2</v>
-      </c>
-      <c r="H31" s="57">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="I31" s="58">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="J31" s="59">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="76">
-        <v>37</v>
-      </c>
-      <c r="B32" s="69" t="s">
-        <v>24</v>
-      </c>
-      <c r="C32" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="D32" s="65" t="b">
-        <v>1</v>
-      </c>
-      <c r="E32" s="62" t="b">
-        <v>1</v>
-      </c>
-      <c r="F32" s="47" t="b">
-        <v>1</v>
-      </c>
-      <c r="G32" s="48">
-        <v>1</v>
-      </c>
-      <c r="H32" s="48">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I32" s="49">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="J32" s="50">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="77">
-        <v>38</v>
-      </c>
-      <c r="B33" s="70" t="s">
-        <v>24</v>
-      </c>
-      <c r="C33" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="D33" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="E33" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="F33" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="G33" s="19">
-        <v>2</v>
-      </c>
-      <c r="H33" s="16">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="I33" s="17">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="J33" s="51">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="77">
-        <v>39</v>
-      </c>
-      <c r="B34" s="70" t="s">
-        <v>24</v>
-      </c>
-      <c r="C34" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="D34" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="E34" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="F34" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="G34" s="19">
-        <v>2</v>
-      </c>
-      <c r="H34" s="16">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="I34" s="17">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="J34" s="51">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="77">
-        <v>40</v>
-      </c>
-      <c r="B35" s="70" t="s">
-        <v>24</v>
-      </c>
-      <c r="C35" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="D35" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="E35" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="F35" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="G35" s="19">
-        <v>5</v>
-      </c>
-      <c r="H35" s="16">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="I35" s="17">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="J35" s="51">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" s="2" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="78">
-        <v>41</v>
-      </c>
-      <c r="B36" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="C36" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="D36" s="80" t="b">
-        <v>1</v>
-      </c>
-      <c r="E36" s="54" t="b">
-        <v>1</v>
-      </c>
-      <c r="F36" s="55" t="b">
-        <v>1</v>
-      </c>
-      <c r="G36" s="56">
-        <v>5</v>
-      </c>
-      <c r="H36" s="57">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="I36" s="58">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="J36" s="59">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I38" s="110"/>
+      <c r="I38" s="1"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="pjlQRUSH+vYR48ww0xjQiwRaAu+ZOxRhINe9mO4fwJMRhZDCmM05QYfR+nNk+EieAyOYeqbwogkf97ic5qEy1w==" saltValue="CW3ddG5XC18S0JZmhf5Wdg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
-  <conditionalFormatting sqref="C2:C4 C6 C8:C36">
-    <cfRule type="expression" dxfId="3" priority="10" stopIfTrue="1">
+  <conditionalFormatting sqref="C2:C36">
+    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
       <formula>F2=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:E1048576">
-    <cfRule type="cellIs" dxfId="2" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="7" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
-      <formula>F5=TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C7">
-    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
-      <formula>F7=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11513,9 +11662,9 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Munka6"/>
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
@@ -11523,363 +11672,172 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="12"/>
-    <col min="3" max="3" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="10"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.7109375" customWidth="1"/>
     <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.7109375" customWidth="1"/>
     <col min="13" max="13" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B1" s="13" t="s">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="G1" s="1" t="s">
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="G1" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>37</v>
       </c>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="4"/>
-      <c r="C2" s="4">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2">
         <v>140</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1">
+      <c r="D2" s="2"/>
+      <c r="G2">
         <v>0</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2">
         <v>20</v>
       </c>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="10">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="8">
         <v>0.4</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="9">
         <v>-100</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1">
+      <c r="G3">
         <v>2</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3">
         <v>18</v>
       </c>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="10">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="8">
         <v>0.55000000000000004</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="9">
         <f>ROUNDDOWN($C$2*B3+1,0)</f>
         <v>57</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1">
+      <c r="G4">
         <v>4</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4">
         <v>16</v>
       </c>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="10">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="8">
         <v>0.7</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="9">
         <f>ROUNDDOWN($C$2*B4+1,0)</f>
         <v>78</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1">
+      <c r="G5">
         <v>6</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5">
         <v>14</v>
       </c>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="10">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="8">
         <v>0.85</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="9">
         <f>ROUNDDOWN($C$2*B5+1,0)</f>
         <v>99</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1">
+      <c r="G6">
         <v>8</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6">
         <v>12</v>
       </c>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="10">
-        <v>1</v>
-      </c>
-      <c r="C7" s="11">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="8">
+        <v>1</v>
+      </c>
+      <c r="C7" s="9">
         <f>ROUNDDOWN($C$2*B6+1,0)</f>
         <v>120</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1">
+      <c r="G7">
         <v>10</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7">
         <v>10</v>
       </c>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D8" s="7"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D8" s="5"/>
+      <c r="G8">
         <v>12</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8">
         <v>8</v>
       </c>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="1">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G9">
         <v>14</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9">
         <v>6</v>
       </c>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="1">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G10">
         <v>16</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10">
         <v>4</v>
       </c>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="1">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G11">
         <v>18</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11">
         <v>2</v>
       </c>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="1">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G12">
         <v>20</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12">
         <v>0</v>
       </c>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B19" s="15"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="1"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="PauWntPJxp6pdOeUdL+wwoA6mwQ1xAmCuHzF+CWHtwhuHj7a//YQsKVluTyyjYPJhfjzZE+buic87UogqgXmoQ==" saltValue="vhxx8qmHH3aQrpx8v+t0BQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>

--- a/WebBeadandóHtmlCssBootstrap_9b.xlsx
+++ b/WebBeadandóHtmlCssBootstrap_9b.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Józsi\Iskola\IKTP\Új beadandó\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90ABB298-A1AF-47E0-9C83-0395A3F85BCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{903F1480-2334-4151-9736-6F57CB435185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1179,31 +1179,6 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1215,6 +1190,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1233,6 +1214,25 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1419,7 +1419,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="D5" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="D5" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp40.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8046,15 +8046,15 @@
   <sheetData>
     <row r="1" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="31"/>
-      <c r="B1" s="84" t="s">
+      <c r="B1" s="94" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
       <c r="I1" s="31"/>
       <c r="J1" s="31"/>
     </row>
@@ -8063,14 +8063,14 @@
       <c r="B2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="89" t="s">
+      <c r="C2" s="80" t="s">
         <v>76</v>
       </c>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
       <c r="I2" s="31"/>
       <c r="J2" s="31"/>
     </row>
@@ -8079,14 +8079,14 @@
       <c r="B3" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="91" t="s">
+      <c r="C3" s="82" t="s">
         <v>77</v>
       </c>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
       <c r="I3" s="31"/>
       <c r="J3" s="31"/>
     </row>
@@ -8095,14 +8095,14 @@
       <c r="B4" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="89" t="s">
+      <c r="C4" s="80" t="s">
         <v>78</v>
       </c>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="93"/>
-      <c r="G4" s="93"/>
-      <c r="H4" s="94"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="87"/>
       <c r="I4" s="31"/>
       <c r="J4" s="31"/>
     </row>
@@ -8120,30 +8120,30 @@
     </row>
     <row r="6" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="31"/>
-      <c r="B6" s="92" t="s">
+      <c r="B6" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="92"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="92"/>
-      <c r="F6" s="92"/>
-      <c r="G6" s="92"/>
-      <c r="H6" s="92"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="85"/>
       <c r="I6" s="31"/>
       <c r="J6" s="31"/>
     </row>
     <row r="7" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="31"/>
-      <c r="B7" s="95" t="str">
+      <c r="B7" s="88" t="str">
         <f>CONCATENATE("Az irányelvek között vannak kiemelt (sárga háttérszínnel és félkövér kiemeléssel jelölt) elvek , amelyek betartására kiemelten figyelni kell! Az elégséges szinthez legalább ",D11," pontot el kell érni. A tanulói és tanári értékelés tekintetében, maximum 10 darab irányelvben lehet eltérés.")</f>
         <v>Az irányelvek között vannak kiemelt (sárga háttérszínnel és félkövér kiemeléssel jelölt) elvek , amelyek betartására kiemelten figyelni kell! Az elégséges szinthez legalább 20 pontot el kell érni. A tanulói és tanári értékelés tekintetében, maximum 10 darab irányelvben lehet eltérés.</v>
       </c>
-      <c r="C7" s="95"/>
-      <c r="D7" s="95"/>
-      <c r="E7" s="95"/>
-      <c r="F7" s="95"/>
-      <c r="G7" s="95"/>
-      <c r="H7" s="95"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="88"/>
+      <c r="H7" s="88"/>
       <c r="I7" s="31"/>
       <c r="J7" s="31"/>
     </row>
@@ -8175,68 +8175,68 @@
     </row>
     <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="31"/>
-      <c r="B10" s="82" t="s">
+      <c r="B10" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="83"/>
+      <c r="C10" s="84"/>
       <c r="D10" s="71">
         <f>SUM(Irányelvek!G:G)</f>
         <v>80</v>
       </c>
       <c r="E10" s="31"/>
-      <c r="F10" s="80" t="s">
+      <c r="F10" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="G10" s="80"/>
-      <c r="H10" s="80"/>
+      <c r="G10" s="92"/>
+      <c r="H10" s="92"/>
       <c r="I10" s="31"/>
       <c r="J10" s="31"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="31"/>
-      <c r="B11" s="86" t="s">
+      <c r="B11" s="96" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="87"/>
+      <c r="C11" s="97"/>
       <c r="D11" s="72">
         <v>20</v>
       </c>
       <c r="E11" s="31"/>
-      <c r="F11" s="81"/>
-      <c r="G11" s="81"/>
-      <c r="H11" s="81"/>
+      <c r="F11" s="93"/>
+      <c r="G11" s="93"/>
+      <c r="H11" s="93"/>
       <c r="I11" s="31"/>
       <c r="J11" s="31"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="31"/>
-      <c r="B12" s="82" t="s">
+      <c r="B12" s="83" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="83"/>
+      <c r="C12" s="84"/>
       <c r="D12" s="71">
         <v>20</v>
       </c>
       <c r="E12" s="31"/>
-      <c r="F12" s="81"/>
-      <c r="G12" s="81"/>
-      <c r="H12" s="81"/>
+      <c r="F12" s="93"/>
+      <c r="G12" s="93"/>
+      <c r="H12" s="93"/>
       <c r="I12" s="31"/>
       <c r="J12" s="31"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="31"/>
-      <c r="B13" s="82" t="s">
+      <c r="B13" s="83" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="83"/>
+      <c r="C13" s="84"/>
       <c r="D13" s="71">
         <v>40</v>
       </c>
       <c r="E13" s="31"/>
-      <c r="F13" s="81"/>
-      <c r="G13" s="81"/>
-      <c r="H13" s="81"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="93"/>
+      <c r="H13" s="93"/>
       <c r="I13" s="31"/>
       <c r="J13" s="31"/>
     </row>
@@ -8246,9 +8246,9 @@
       <c r="C14" s="31"/>
       <c r="D14" s="31"/>
       <c r="E14" s="31"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="81"/>
-      <c r="H14" s="81"/>
+      <c r="F14" s="93"/>
+      <c r="G14" s="93"/>
+      <c r="H14" s="93"/>
       <c r="I14" s="31"/>
       <c r="J14" s="31"/>
     </row>
@@ -8268,13 +8268,13 @@
     </row>
     <row r="16" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="31"/>
-      <c r="B16" s="82" t="s">
+      <c r="B16" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="83"/>
+      <c r="C16" s="84"/>
       <c r="D16" s="30" t="b">
         <f t="array" ref="D16">IF(COUNTIFS(Irányelvek!D2:D36,"=hamis",Irányelvek!F2:F36,"=Igaz")=0,TRUE,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" s="31"/>
       <c r="F16" s="31"/>
@@ -8285,74 +8285,74 @@
     </row>
     <row r="17" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="31"/>
-      <c r="B17" s="82" t="s">
+      <c r="B17" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="83"/>
+      <c r="C17" s="84"/>
       <c r="D17" s="33">
         <f>SUM(Irányelvek!H2:H36)</f>
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E17" s="31"/>
-      <c r="F17" s="79" t="str">
+      <c r="F17" s="91" t="str">
         <f>VLOOKUP(D20,Ponthatárok!$C$3:$D$7,2,TRUE)</f>
         <v>Jeles (5)</v>
       </c>
-      <c r="G17" s="79"/>
-      <c r="H17" s="79"/>
+      <c r="G17" s="91"/>
+      <c r="H17" s="91"/>
       <c r="I17" s="31"/>
       <c r="J17" s="31"/>
     </row>
     <row r="18" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="31"/>
-      <c r="B18" s="96" t="s">
+      <c r="B18" s="89" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="97"/>
+      <c r="C18" s="90"/>
       <c r="D18" s="36">
         <f>IF(D17&gt;D11,VLOOKUP(SUM(Irányelvek!J2:J36),Ponthatárok!G2:H12,2,TRUE),0)</f>
         <v>20</v>
       </c>
       <c r="E18" s="31"/>
-      <c r="F18" s="79"/>
-      <c r="G18" s="79"/>
-      <c r="H18" s="79"/>
+      <c r="F18" s="91"/>
+      <c r="G18" s="91"/>
+      <c r="H18" s="91"/>
       <c r="I18" s="31"/>
       <c r="J18" s="31"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="31"/>
-      <c r="B19" s="82" t="s">
+      <c r="B19" s="83" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="83"/>
+      <c r="C19" s="84"/>
       <c r="D19" s="73">
         <v>40</v>
       </c>
       <c r="E19" s="31"/>
-      <c r="F19" s="79"/>
-      <c r="G19" s="79"/>
-      <c r="H19" s="79"/>
+      <c r="F19" s="91"/>
+      <c r="G19" s="91"/>
+      <c r="H19" s="91"/>
       <c r="I19" s="31"/>
       <c r="J19" s="31"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="31"/>
-      <c r="B20" s="82" t="s">
+      <c r="B20" s="83" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="83"/>
+      <c r="C20" s="84"/>
       <c r="D20" s="33">
         <f>SUM(D17:D19)</f>
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E20" s="31"/>
-      <c r="F20" s="88" t="str">
+      <c r="F20" s="79" t="str">
         <f>CONCATENATE("Az önértékelés alapján ",VLOOKUP(D20,Ponthatárok!$C$3:$D$7,2,TRUE), "  érdemjegyet kapnál rá.")</f>
         <v>Az önértékelés alapján Jeles (5)  érdemjegyet kapnál rá.</v>
       </c>
-      <c r="G20" s="88"/>
-      <c r="H20" s="88"/>
+      <c r="G20" s="79"/>
+      <c r="H20" s="79"/>
       <c r="I20" s="31"/>
       <c r="J20" s="31"/>
     </row>
@@ -8802,6 +8802,8 @@
     <row r="464" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B11:C11"/>
     <mergeCell ref="F20:H20"/>
     <mergeCell ref="C2:H2"/>
     <mergeCell ref="C3:H3"/>
@@ -8818,8 +8820,6 @@
     <mergeCell ref="F10:H14"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B11:C11"/>
   </mergeCells>
   <conditionalFormatting sqref="D17:D20">
     <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
@@ -9007,7 +9007,7 @@
         <v>68</v>
       </c>
       <c r="D5" s="16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="17" t="b">
         <v>1</v>
@@ -9020,7 +9020,7 @@
       </c>
       <c r="H5" s="13">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="I5" s="14">
         <f t="shared" si="1"/>
@@ -9028,7 +9028,7 @@
       </c>
       <c r="J5" s="42">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" s="7"/>
     </row>
